--- a/Scale_Data.xlsx
+++ b/Scale_Data.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
@@ -530,6 +530,622 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>8888866666</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5 kg</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">05:02AM </t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11/08/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>8888888888</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>20 kg</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">08:35AM </t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>04/09/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>888899999</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>15 kg</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">08:40AM </t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>04/09/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>55558888888</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>15 kg</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">08:42AM </t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>04/09/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>1212121212</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>15 kg</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">08:46AM </t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>04/09/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>6633225514</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>15 kg</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">08:47AM </t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>04/09/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>5858585858</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>15 kg</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">08:59AM </t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>04/09/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>9996668885</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>15 kg</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">08:59AM </t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>04/09/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>8855669977</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>10 kg</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">09:01AM </t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>04/09/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>6655887744</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>15 kg</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">09:08AM </t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>04/09/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4747141414</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>15 kg</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">02:46AM </t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>05/09/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>3322556699</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5 kg</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">02:49AM </t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>05/09/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>8080778855</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>15 kg</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">02:52AM </t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>05/09/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>22222222225</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>15 kg</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">02:53AM </t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>05/09/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>8080998800</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>20 kg</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">02:55AM </t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>05/09/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>6666333355</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>30 kg</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">02:56AM </t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>05/09/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>3333222255</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>25 kg</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">02:57AM </t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>05/09/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>4444111122</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>30 kg</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">02:58AM </t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>05/09/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>3332226669</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>30 kg</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">03:08AM </t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>05/09/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>01170</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>10 kg</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">03:10AM </t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>05/09/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>011070</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>10 kg</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">03:11AM </t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>05/09/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>011070</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5 kg</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">03:13AM </t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>05/09/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>011</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>15 kg</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">03:16AM </t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>05/09/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>1414141414</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>05:43AM</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>10/10/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>1212121212</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>05:47AM</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>10/10/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>1212121212</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>05:49AM</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>10/10/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>1717171717</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>05:52AM</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>10/10/2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>1515151515</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>06:15AM</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>10/10/2023</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
